--- a/自考成绩.xlsx
+++ b/自考成绩.xlsx
@@ -1,37 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA38A58-9130-470A-9FE4-DEE57D080401}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="22368" windowHeight="9347" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="科目成绩" sheetId="1" r:id="rId1"/>
     <sheet name="成绩图片" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="36">
   <si>
     <t>自考成绩</t>
   </si>
@@ -108,21 +92,30 @@
     <t>时间</t>
   </si>
   <si>
+    <t>取消原因</t>
+  </si>
+  <si>
     <t>劳动法</t>
   </si>
   <si>
+    <t>违规</t>
+  </si>
+  <si>
     <t>劳动就业概论</t>
   </si>
   <si>
     <t>经济法概论</t>
   </si>
   <si>
-    <t>未知</t>
+    <t>4月(15日</t>
   </si>
   <si>
     <t>未考</t>
   </si>
   <si>
+    <t>疫情</t>
+  </si>
+  <si>
     <t>1月</t>
   </si>
   <si>
@@ -130,25 +123,19 @@
   </si>
   <si>
     <t>2022年10月考试,准备好的科目反而考的分数不高,没信心的反而考的比较好。</t>
-  </si>
-  <si>
-    <t>取消原因</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>违规</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>疫情</t>
-    <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +164,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="7"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -184,6 +177,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color rgb="FF002060"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="16"/>
       <color theme="1"/>
@@ -191,6 +191,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="3" tint="0.399945066682943"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <strike/>
       <sz val="16"/>
       <color theme="1"/>
@@ -198,6 +204,25 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="黑体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文新魏"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="20"/>
       <color theme="1"/>
@@ -231,42 +256,151 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="0"/>
-      <name val="黑体"/>
-      <family val="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="黑体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="7"/>
-      <name val="黑体"/>
-      <family val="3"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,12 +409,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="8" tint="0.399914548173467"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -306,97 +626,7 @@
       </diagonal>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
         <color auto="1"/>
       </left>
       <right/>
@@ -433,26 +663,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -462,10 +677,10 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -490,7 +705,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -503,7 +720,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -514,7 +733,9 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -522,10 +743,10 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -535,7 +756,31 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -548,7 +793,7 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thick">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -560,6 +805,66 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -575,7 +880,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thick">
@@ -586,9 +891,266 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -599,216 +1161,213 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="9">
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left/>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -818,29 +1377,21 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <font>
+        <name val="华文新魏"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
+        <strike val="1"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
+        <sz val="16"/>
         <color theme="1"/>
-        <name val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -857,23 +1408,18 @@
     </dxf>
     <dxf>
       <font>
+        <name val="黑体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="16"/>
-        <color theme="2" tint="-0.89999084444715716"/>
-        <name val="黑体"/>
-        <charset val="134"/>
-        <scheme val="none"/>
+        <color theme="2" tint="-0.899960325937681"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -890,22 +1436,18 @@
     </dxf>
     <dxf>
       <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
-        <strike/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
+        <strike val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="16"/>
+        <sz val="14"/>
         <color theme="1"/>
-        <name val="华文新魏"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
@@ -921,9 +1463,22 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <font>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <u val="none"/>
+        <sz val="14"/>
+        <color theme="1"/>
+      </font>
+      <alignment horizontal="center" vertical="center"/>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
         <right style="thin">
           <color auto="1"/>
         </right>
@@ -933,67 +1488,32 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right style="thick">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thick">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <name val="宋体"/>
+        <scheme val="none"/>
+        <charset val="134"/>
+        <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color theme="1"/>
-        <name val="华文隶书"/>
-        <charset val="134"/>
-        <scheme val="none"/>
+        <sz val="14"/>
+        <color rgb="FF002060"/>
       </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <alignment horizontal="center" vertical="center"/>
+      <border>
         <left style="thin">
           <color auto="1"/>
         </left>
-        <right style="thin">
+        <right/>
+        <top style="thin">
           <color auto="1"/>
-        </right>
-        <top/>
-        <bottom/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1018,91 +1538,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1112,15 +1552,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -1136,17 +1573,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+        <a:blip r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
               <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
@@ -1199,17 +1630,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:blip r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1254,17 +1679,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip r:embed="rId4" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1308,17 +1727,11 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="2022年自考成绩">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="2022年自考成绩"/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1359,19 +1772,57 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>45085</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4" descr="一月考试成绩"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="45085" y="6484620"/>
+          <a:ext cx="5357495" cy="3104515"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{55E61B34-D615-4BAD-9630-82EF07A64D59}" name="表3" displayName="表3" ref="A2:F16" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="A2:F16" xr:uid="{55E61B34-D615-4BAD-9630-82EF07A64D59}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="表3" displayName="表3" ref="A2:F16" totalsRowShown="0">
+  <autoFilter ref="A2:F16"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4BFDD074-388D-414F-B12B-8B468B7F6B2B}" name="编号" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{9EF36413-19EF-4060-BA0E-BB204C00003B}" name="科目" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{2686F310-54DE-4DDC-B930-E9590DEF66AA}" name="考试年份" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{A89F3834-7544-4FA1-992D-C8AA62985F82}" name="考试时间" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{3199A01D-8327-406A-B8D7-D02EB553CE85}" name="等级" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{A1EF7ADA-1926-4BD1-88B3-6F2FF2AC7AFB}" name="分数" dataDxfId="0"/>
+    <tableColumn id="1" name="编号" dataDxfId="0"/>
+    <tableColumn id="2" name="科目" dataDxfId="1"/>
+    <tableColumn id="3" name="考试年份" dataDxfId="2"/>
+    <tableColumn id="4" name="考试时间" dataDxfId="3"/>
+    <tableColumn id="5" name="等级" dataDxfId="4"/>
+    <tableColumn id="6" name="分数" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1658,514 +2109,518 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" customWidth="1"/>
-    <col min="2" max="2" width="28.21875" customWidth="1"/>
-    <col min="3" max="5" width="18.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" customWidth="1"/>
-    <col min="7" max="7" width="8.77734375" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
-    <col min="9" max="11" width="18.77734375" customWidth="1"/>
-    <col min="12" max="12" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.77777777777778" customWidth="1"/>
+    <col min="2" max="2" width="28.2222222222222" customWidth="1"/>
+    <col min="3" max="5" width="18.3333333333333" customWidth="1"/>
+    <col min="6" max="6" width="10.7777777777778" customWidth="1"/>
+    <col min="7" max="7" width="8.77777777777778" customWidth="1"/>
+    <col min="8" max="8" width="15.7777777777778" customWidth="1"/>
+    <col min="9" max="11" width="18.7777777777778" customWidth="1"/>
+    <col min="12" max="12" width="12.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="36.6" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="36.75" spans="1:11">
       <c r="A1" s="1"/>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="38"/>
-      <c r="I1" s="39" t="s">
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="4"/>
+      <c r="I1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="40"/>
-      <c r="K1" s="41"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="28"/>
     </row>
-    <row r="2" spans="1:12" ht="23.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" ht="23.4" spans="1:11">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="31" t="s">
+      <c r="F2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+    <row r="3" ht="20.4" spans="1:11">
+      <c r="A3" s="8">
         <v>12</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="35">
+      <c r="C3" s="10">
         <v>2021</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="11">
         <v>6</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="12">
         <v>75</v>
       </c>
-      <c r="I3" s="12">
+      <c r="I3" s="32">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="14">
+      <c r="K3" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+    <row r="4" ht="20.4" spans="1:11">
+      <c r="A4" s="8">
         <v>5</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="35">
+      <c r="C4" s="10">
         <v>2021</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="11">
         <v>6</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="12">
         <v>90</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="32">
         <v>2</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="34">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+    <row r="5" ht="20.4" spans="1:11">
+      <c r="A5" s="8">
         <v>2</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="35">
+      <c r="C5" s="10">
         <v>2021</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="7">
+      <c r="E5" s="11">
         <v>2</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="12">
         <v>86</v>
       </c>
-      <c r="I5" s="12">
+      <c r="I5" s="32">
         <v>3</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="34">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23">
+    <row r="6" ht="21.15" spans="1:11">
+      <c r="A6" s="8">
         <v>7</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="35">
+      <c r="C6" s="10">
         <v>2021</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="7">
+      <c r="E6" s="11">
         <v>5</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="12">
         <v>72</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="36">
         <v>4</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="18">
+      <c r="K6" s="38">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="23">
+    <row r="7" ht="21.9" spans="1:8">
+      <c r="A7" s="8">
         <v>1</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="10">
         <v>2021</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="7">
+      <c r="E7" s="11">
         <v>4</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="12">
         <v>71</v>
       </c>
       <c r="G7">
         <f>SUM(F3:F7)</f>
         <v>394</v>
       </c>
-      <c r="H7" s="8"/>
+      <c r="H7" s="13"/>
     </row>
-    <row r="8" spans="1:12" ht="29.4" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+    <row r="8" ht="29.55" spans="1:12">
+      <c r="A8" s="8">
         <v>4</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="32">
+      <c r="C8" s="15">
         <v>2022</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="7">
+      <c r="E8" s="11">
         <v>4</v>
       </c>
-      <c r="F8" s="24" t="s">
+      <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="43" t="s">
+      <c r="I8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="45"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="41"/>
     </row>
-    <row r="9" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+    <row r="9" ht="20.4" spans="1:12">
+      <c r="A9" s="8">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="32">
+      <c r="C9" s="15">
         <v>2022</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="11">
         <v>6</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="12">
         <v>83</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="20" t="s">
+      <c r="K9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="L9" s="46" t="s">
-        <v>33</v>
+      <c r="L9" s="44" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+    <row r="10" ht="20.4" spans="1:12">
+      <c r="A10" s="8">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C10" s="32">
+      <c r="B10" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="15">
         <v>2022</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="11">
         <v>4</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="12">
         <v>83</v>
       </c>
-      <c r="I10" s="5">
+      <c r="I10" s="45">
         <v>1</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J10" s="46" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="47">
         <v>44562</v>
       </c>
       <c r="L10" s="48" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+    <row r="11" ht="20.4" spans="1:12">
+      <c r="A11" s="8">
         <v>11</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" s="32">
+      <c r="B11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="15">
         <v>2022</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="7">
+      <c r="E11" s="11">
         <v>6</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="12">
         <v>76</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="45">
         <v>2</v>
       </c>
-      <c r="J11" s="21" t="s">
+      <c r="J11" s="46" t="s">
         <v>15</v>
       </c>
       <c r="K11" s="47">
         <v>44562</v>
       </c>
-      <c r="L11" s="49"/>
+      <c r="L11" s="34"/>
     </row>
-    <row r="12" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+    <row r="12" ht="20.4" spans="1:12">
+      <c r="A12" s="8">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="32">
+      <c r="B12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="15">
         <v>2022</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="7">
+      <c r="E12" s="11">
         <v>4</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="12">
         <v>62</v>
       </c>
       <c r="G12">
         <f>SUM(F9:F12)</f>
         <v>304</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="45">
         <v>3</v>
       </c>
-      <c r="J12" s="21" t="s">
-        <v>26</v>
+      <c r="J12" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="K12" s="47">
         <v>44562</v>
       </c>
-      <c r="L12" s="49"/>
+      <c r="L12" s="34"/>
     </row>
-    <row r="13" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+    <row r="13" ht="20.4" spans="1:12">
+      <c r="A13" s="8">
         <v>3</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="17">
         <v>2023</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E13" s="7">
+      <c r="D13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="11">
         <v>6</v>
       </c>
-      <c r="F13" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="F13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="45">
         <v>4</v>
       </c>
-      <c r="J13" s="21" t="s">
+      <c r="J13" s="46" t="s">
         <v>10</v>
       </c>
       <c r="K13" s="47">
         <v>44652</v>
       </c>
       <c r="L13" s="48" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+    <row r="14" ht="20.4" spans="1:12">
+      <c r="A14" s="8">
         <v>9</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="17">
         <v>2023</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="7">
+      <c r="D14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="11">
         <v>5</v>
       </c>
-      <c r="F14" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="F14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="45">
         <v>5</v>
       </c>
-      <c r="J14" s="21" t="s">
+      <c r="J14" s="46" t="s">
         <v>23</v>
       </c>
       <c r="K14" s="47">
         <v>44652</v>
       </c>
-      <c r="L14" s="49"/>
+      <c r="L14" s="34"/>
     </row>
-    <row r="15" spans="1:12" ht="20.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+    <row r="15" ht="20.4" spans="1:12">
+      <c r="A15" s="8">
         <v>10</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="17">
         <v>2023</v>
       </c>
-      <c r="D15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="7">
+      <c r="D15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="11">
         <v>6</v>
       </c>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="12">
+        <v>77</v>
+      </c>
+      <c r="I15" s="45">
+        <v>6</v>
+      </c>
+      <c r="J15" s="46" t="s">
         <v>29</v>
-      </c>
-      <c r="I15" s="5">
-        <v>6</v>
-      </c>
-      <c r="J15" s="21" t="s">
-        <v>27</v>
       </c>
       <c r="K15" s="47">
         <v>44652</v>
       </c>
-      <c r="L15" s="49"/>
+      <c r="L15" s="34"/>
     </row>
-    <row r="16" spans="1:12" ht="21" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="25">
+    <row r="16" ht="21.15" spans="1:12">
+      <c r="A16" s="20">
         <v>13</v>
       </c>
-      <c r="B16" s="26" t="s">
+      <c r="B16" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="34">
+      <c r="C16" s="22">
         <v>2023</v>
       </c>
-      <c r="D16" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="27">
+      <c r="D16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" s="23">
         <v>4</v>
       </c>
-      <c r="F16" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="I16" s="11">
+      <c r="F16" s="24">
+        <v>78</v>
+      </c>
+      <c r="G16">
+        <f>SUM(F15:F16)</f>
+        <v>155</v>
+      </c>
+      <c r="I16" s="49">
         <v>7</v>
       </c>
-      <c r="J16" s="22" t="s">
+      <c r="J16" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K16" s="50">
+      <c r="K16" s="51">
         <v>44652</v>
       </c>
-      <c r="L16" s="51"/>
+      <c r="L16" s="38"/>
     </row>
-    <row r="17" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="17" ht="15.15" spans="2:7">
       <c r="B17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F17">
-        <f>SUM(F3:F16)</f>
-        <v>698</v>
-      </c>
-      <c r="G17" s="8"/>
+        <f>SUM(表3[分数])</f>
+        <v>853</v>
+      </c>
+      <c r="G17" s="13"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
+    <row r="18" spans="1:4">
+      <c r="A18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="25"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:F16">
+  <sortState ref="A3:F16">
     <sortCondition ref="C3:C16"/>
-    <sortCondition descending="1" ref="D3:D16"/>
-    <sortCondition descending="1" ref="F3:F16"/>
+    <sortCondition ref="D3:D16" descending="1"/>
+    <sortCondition ref="F3:F16" descending="1"/>
   </sortState>
   <mergeCells count="6">
     <mergeCell ref="B1:F1"/>
@@ -2175,14 +2630,13 @@
     <mergeCell ref="L10:L12"/>
     <mergeCell ref="L13:L16"/>
   </mergeCells>
-  <phoneticPr fontId="12" type="noConversion"/>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="20" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
       <formula>3</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="colorScale" priority="25">
+    <cfRule type="colorScale" priority="26">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2194,32 +2648,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="11" operator="equal">
       <formula>9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12">
-    <cfRule type="cellIs" dxfId="18" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:E12">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" operator="equal">
       <formula>"1月"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="16" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
       <formula>13</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15:E15">
-    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" operator="equal">
       <formula>"1月"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C16">
-    <cfRule type="colorScale" priority="12">
+    <cfRule type="colorScale" priority="13">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2231,7 +2685,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:D16">
-    <cfRule type="colorScale" priority="6">
+    <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2241,13 +2695,13 @@
         <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="22" operator="equal">
       <formula>"1月"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="23" operator="equal">
       <formula>"10月"</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="24">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2255,16 +2709,16 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{5EB9BEC1-78ED-4D29-8310-ADD01D72C424}</x14:id>
+          <x14:id>{0b885a76-b664-41cc-97a5-dabb6c2a379b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E16">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="2" operator="equal">
       <formula>6</formula>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2272,11 +2726,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{4CB59212-C794-4B02-B993-348A72CCA9A5}</x14:id>
+          <x14:id>{69aa3ed6-f119-4d61-8ffe-8126b9ea1601}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2288,7 +2742,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F16">
-    <cfRule type="colorScale" priority="16">
+    <cfRule type="colorScale" priority="17">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2296,15 +2750,25 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="20" operator="equal">
       <formula>"未考"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" operator="equal">
       <formula>"未考"</formula>
+    </cfRule>
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -2312,11 +2776,11 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{F3DF35F8-03FE-4C22-AB35-DEAB61E5CB0E}</x14:id>
+          <x14:id>{bd0c98e3-c062-49ca-89cc-a03260fc7d20}</x14:id>
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="colorScale" priority="13">
+    <cfRule type="colorScale" priority="14">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2328,7 +2792,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K10:K16">
-    <cfRule type="colorScale" priority="7">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2340,7 +2804,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3:F16">
-    <cfRule type="colorScale" priority="14">
+    <cfRule type="colorScale" priority="15">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -2352,15 +2816,16 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{5EB9BEC1-78ED-4D29-8310-ADD01D72C424}">
+          <x14:cfRule type="dataBar" id="{0b885a76-b664-41cc-97a5-dabb6c2a379b}">
             <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2373,7 +2838,7 @@
           <xm:sqref>D3:D16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{4CB59212-C794-4B02-B993-348A72CCA9A5}">
+          <x14:cfRule type="dataBar" id="{69aa3ed6-f119-4d61-8ffe-8126b9ea1601}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2384,7 +2849,7 @@
           <xm:sqref>E3:E16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{F3DF35F8-03FE-4C22-AB35-DEAB61E5CB0E}">
+          <x14:cfRule type="dataBar" id="{bd0c98e3-c062-49ca-89cc-a03260fc7d20}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0">
               <x14:cfvo type="autoMin"/>
               <x14:cfvo type="autoMax"/>
@@ -2401,18 +2866,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>